--- a/MasterSurvey.xlsx
+++ b/MasterSurvey.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertkelly/Documents/public_SurveyMatcher/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{689B03F6-28EB-7045-AECA-D7A64A08DEBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F866FFA1-F9A3-8947-AD73-3B3CC1C05F7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="32600" yWindow="460" windowWidth="30240" windowHeight="17780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -59,9 +59,6 @@
     <t>Survey</t>
   </si>
   <si>
-    <t>Distinguished Individual Contributor</t>
-  </si>
-  <si>
     <t>Software Engineering</t>
   </si>
   <si>
@@ -97,6 +94,9 @@
   </si>
   <si>
     <t>The Senior Software Engineer is responsible for leading the design, development, and implementation of high-quality software solutions. This role involves mentoring junior engineers, reviewing code, ensuring adherence to the software development life cycle, and contributing to the architectural decisions of our software projects.</t>
+  </si>
+  <si>
+    <t>Senior Individual Contributor</t>
   </si>
 </sst>
 </file>
@@ -491,7 +491,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H2" sqref="H2"/>
+      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -510,16 +510,16 @@
         <v>6</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>3</v>
@@ -528,7 +528,7 @@
         <v>4</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>1</v>
@@ -542,34 +542,34 @@
         <v>12345</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
